--- a/server/data/Filtered_And_Formatted_Data.xlsx
+++ b/server/data/Filtered_And_Formatted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0/Work/OFFICE/NEPTA-online-voting-system/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD3913-E401-A44F-87EE-B483FA3C7997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210079C-789D-E344-8F68-D6CFB0C4500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Timestamp</t>
   </si>
@@ -70,10 +70,16 @@
     <t>9860358576</t>
   </si>
   <si>
-    <t>tamangjake@gmail.com</t>
-  </si>
-  <si>
-    <t>aashutosh.poudel8@gmail.com</t>
+    <t>ujjwal.dotel121@gmail.com</t>
+  </si>
+  <si>
+    <t>srijanaluitelab@gmail.com</t>
+  </si>
+  <si>
+    <t>jyanendrajha@gmail.com</t>
+  </si>
+  <si>
+    <t>jhasujit.physio@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,13 +467,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -523,16 +532,58 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{90AEBC49-59C2-CA48-824F-F4864ACFC799}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5AF4A9E6-E0FA-BD42-8657-7D72A7155D4A}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{5AF4A9E6-E0FA-BD42-8657-7D72A7155D4A}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{90AEBC49-59C2-CA48-824F-F4864ACFC799}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8C74C85D-47BE-4A4B-8428-7A5B30C0C070}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B3D94F31-45A4-7E4C-AF2A-1B5F694E99BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/server/data/Filtered_And_Formatted_Data.xlsx
+++ b/server/data/Filtered_And_Formatted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0/Work/OFFICE/NEPTA-online-voting-system/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD3913-E401-A44F-87EE-B483FA3C7997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C4E91-F67C-FF47-A3F4-D459DF636DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,27 +40,9 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>12/13/2024 22:25:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagar shrestha </t>
-  </si>
-  <si>
-    <t>G-1027</t>
-  </si>
-  <si>
-    <t>2027-12-16</t>
-  </si>
-  <si>
-    <t>9803205873</t>
-  </si>
-  <si>
     <t>12/13/2024 22:27:21</t>
   </si>
   <si>
-    <t>Sujit jha</t>
-  </si>
-  <si>
     <t>OG 259</t>
   </si>
   <si>
@@ -70,10 +52,10 @@
     <t>9860358576</t>
   </si>
   <si>
-    <t>tamangjake@gmail.com</t>
-  </si>
-  <si>
-    <t>aashutosh.poudel8@gmail.com</t>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>shiwakotirenuka@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,49 +476,34 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{90AEBC49-59C2-CA48-824F-F4864ACFC799}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5AF4A9E6-E0FA-BD42-8657-7D72A7155D4A}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E0548C7E-9321-0748-AA20-61463E78AFFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A3:D3 A2:D2 F2 F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>